--- a/result/СПК ВВП.xlsx
+++ b/result/СПК ВВП.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F298"/>
+  <dimension ref="A1:F295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>912</v>
+        <v>924</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>781</v>
+        <v>978</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>833</v>
+        <v>909</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>681</v>
+        <v>801</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>973</v>
+        <v>729</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>760</v>
+        <v>678</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>723</v>
+        <v>665</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>665</v>
+        <v>639</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -812,16 +812,14 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>61.68</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -840,16 +838,14 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>61.68</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -868,16 +864,14 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>61.68</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1052,7 +1046,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>513</v>
+        <v>839</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1080,7 +1074,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>648</v>
+        <v>772</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1108,7 +1102,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>610</v>
+        <v>591</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1214,7 +1208,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>613</v>
+        <v>973</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1242,7 +1236,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>832</v>
+        <v>722</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1270,7 +1264,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>979</v>
+        <v>789</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1298,7 +1292,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1376,7 +1370,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>975</v>
+        <v>880</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1404,7 +1398,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>535</v>
+        <v>997</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1432,7 +1426,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>851</v>
+        <v>934</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1460,16 +1454,14 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>860</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>140.72</v>
-      </c>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1488,16 +1480,14 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>140.72</v>
-      </c>
+      <c r="F39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1516,16 +1506,14 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>859</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>140.72</v>
-      </c>
+      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1622,7 +1610,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>889</v>
+        <v>754</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1650,7 +1638,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1678,7 +1666,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>651</v>
+        <v>1000</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1706,7 +1694,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>933</v>
+        <v>823</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1734,7 +1722,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>627</v>
+        <v>709</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1762,7 +1750,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>725</v>
+        <v>560</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1790,7 +1778,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1868,14 +1856,16 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>83.26000000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1894,14 +1884,16 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>623</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="F54" t="n">
+        <v>83.26000000000001</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1920,14 +1912,16 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="F55" t="n">
+        <v>83.26000000000001</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1946,7 +1940,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1974,7 +1968,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>790</v>
+        <v>526</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2002,7 +1996,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>563</v>
+        <v>876</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2030,7 +2024,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>960</v>
+        <v>858</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2058,7 +2052,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>970</v>
+        <v>558</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2086,7 +2080,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>754</v>
+        <v>503</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2114,7 +2108,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>754</v>
+        <v>771</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2142,7 +2136,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>664</v>
+        <v>757</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2170,7 +2164,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>744</v>
+        <v>643</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2198,7 +2192,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>965</v>
+        <v>735</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2226,7 +2220,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>905</v>
+        <v>690</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2254,7 +2248,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>512</v>
+        <v>842</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2360,7 +2354,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>603</v>
+        <v>663</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2388,7 +2382,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>668</v>
+        <v>889</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2416,16 +2410,14 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>316.2</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2444,16 +2436,14 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>810</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F74" t="n">
-        <v>316.2</v>
-      </c>
+      <c r="F74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2472,16 +2462,14 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F75" t="n">
-        <v>462.86</v>
-      </c>
+      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2708,7 +2696,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2736,7 +2724,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>800</v>
+        <v>833</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2764,7 +2752,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>840</v>
+        <v>939</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2792,7 +2780,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>631</v>
+        <v>809</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2898,7 +2886,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>708</v>
+        <v>768</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2926,7 +2914,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>785</v>
+        <v>770</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2954,7 +2942,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>977</v>
+        <v>638</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2982,7 +2970,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>917</v>
+        <v>709</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3010,7 +2998,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>828</v>
+        <v>510</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3038,7 +3026,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>957</v>
+        <v>945</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3066,7 +3054,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>598</v>
+        <v>866</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3094,7 +3082,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>886</v>
+        <v>911</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3148,7 +3136,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3176,7 +3164,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>834</v>
+        <v>721</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3204,7 +3192,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>652</v>
+        <v>795</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3232,7 +3220,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3260,7 +3248,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>628</v>
+        <v>835</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3288,7 +3276,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3394,16 +3382,14 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>865</v>
+        <v>0</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>63.37</v>
-      </c>
+      <c r="F109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3422,16 +3408,14 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F110" t="n">
-        <v>63.37</v>
-      </c>
+      <c r="F110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3450,16 +3434,14 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>63.37</v>
-      </c>
+      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3478,7 +3460,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3506,7 +3488,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>577</v>
+        <v>801</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3534,7 +3516,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>666</v>
+        <v>608</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3614,7 +3596,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>784</v>
+        <v>564</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3720,7 +3702,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>846</v>
+        <v>642</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3748,7 +3730,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>703</v>
+        <v>886</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3776,7 +3758,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>742</v>
+        <v>554</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3804,7 +3786,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3832,16 +3814,14 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>732</v>
+        <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F125" t="n">
-        <v>60.91</v>
-      </c>
+      <c r="F125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3860,16 +3840,14 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F126" t="n">
-        <v>60.91</v>
-      </c>
+      <c r="F126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3888,16 +3866,14 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F127" t="n">
-        <v>60.91</v>
-      </c>
+      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3968,16 +3944,14 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F130" t="n">
-        <v>357.86</v>
-      </c>
+      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3996,7 +3970,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>892</v>
+        <v>507</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -4024,7 +3998,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>575</v>
+        <v>773</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -4032,7 +4006,7 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>65.34999999999999</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="133">
@@ -4052,7 +4026,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>713</v>
+        <v>913</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -4060,7 +4034,7 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>65.34999999999999</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="134">
@@ -4080,7 +4054,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>561</v>
+        <v>756</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -4088,7 +4062,7 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>65.34999999999999</v>
+        <v>62.91</v>
       </c>
     </row>
     <row r="135">
@@ -4108,7 +4082,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>620</v>
+        <v>804</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -4136,7 +4110,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>816</v>
+        <v>697</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -4164,16 +4138,14 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>534</v>
+        <v>0</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F137" t="n">
-        <v>292.54</v>
-      </c>
+      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4192,16 +4164,14 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>907</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>292.54</v>
-      </c>
+      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4220,7 +4190,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>610</v>
+        <v>907</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -4248,7 +4218,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>623</v>
+        <v>935</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -4432,7 +4402,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>743</v>
+        <v>547</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4460,7 +4430,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -4618,7 +4588,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>797</v>
+        <v>619</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -4646,7 +4616,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>839</v>
+        <v>618</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -4674,16 +4644,14 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>951</v>
+        <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>Заполнены</t>
         </is>
       </c>
-      <c r="F156" t="n">
-        <v>132.82</v>
-      </c>
+      <c r="F156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -5430,7 +5398,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>772</v>
+        <v>848</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -5458,7 +5426,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>791</v>
+        <v>656</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -5486,7 +5454,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>831</v>
+        <v>893</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -5514,7 +5482,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>886</v>
+        <v>713</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -5542,7 +5510,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -5570,7 +5538,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>845</v>
+        <v>557</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -5598,7 +5566,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>843</v>
+        <v>664</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -5626,7 +5594,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>922</v>
+        <v>738</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -5654,7 +5622,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>623</v>
+        <v>753</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -5682,7 +5650,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>863</v>
+        <v>539</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -5710,7 +5678,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>515</v>
+        <v>730</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -5738,7 +5706,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>766</v>
+        <v>623</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -5792,7 +5760,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>618</v>
+        <v>908</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -5800,7 +5768,7 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>201.3</v>
+        <v>205.84</v>
       </c>
     </row>
     <row r="199">
@@ -5820,7 +5788,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>514</v>
+        <v>676</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5828,7 +5796,7 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>201.3</v>
+        <v>205.84</v>
       </c>
     </row>
     <row r="200">
@@ -5848,7 +5816,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>572</v>
+        <v>524</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -5876,7 +5844,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>763</v>
+        <v>530</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -5904,7 +5872,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -6010,7 +5978,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>824</v>
+        <v>626</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -6038,7 +6006,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>594</v>
+        <v>534</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -6066,7 +6034,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -6094,7 +6062,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>599</v>
+        <v>809</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -6122,7 +6090,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>633</v>
+        <v>935</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -6254,7 +6222,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>872</v>
+        <v>587</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -6360,7 +6328,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>864</v>
+        <v>836</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -6388,7 +6356,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -6416,7 +6384,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1000</v>
+        <v>946</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -6444,7 +6412,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -6472,7 +6440,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>843</v>
+        <v>609</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -6500,7 +6468,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>667</v>
+        <v>559</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -6528,7 +6496,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>756</v>
+        <v>703</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -6556,7 +6524,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>606</v>
+        <v>916</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -6584,7 +6552,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>925</v>
+        <v>899</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -6612,7 +6580,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>796</v>
+        <v>991</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -6640,7 +6608,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>769</v>
+        <v>822</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -6668,7 +6636,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>658</v>
+        <v>841</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -6696,7 +6664,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>510</v>
+        <v>720</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -6724,7 +6692,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>899</v>
+        <v>820</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -6752,7 +6720,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>872</v>
+        <v>971</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -6858,7 +6826,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>809</v>
+        <v>754</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -6886,7 +6854,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>691</v>
+        <v>840</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -6914,7 +6882,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>866</v>
+        <v>918</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -6942,7 +6910,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>779</v>
+        <v>515</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -6970,7 +6938,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>747</v>
+        <v>729</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -6998,7 +6966,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>770</v>
+        <v>634</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -7026,7 +6994,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>926</v>
+        <v>678</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -7054,7 +7022,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -7160,7 +7128,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>731</v>
+        <v>991</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -7188,7 +7156,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>647</v>
+        <v>581</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -7216,7 +7184,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>773</v>
+        <v>890</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -7244,7 +7212,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>952</v>
+        <v>833</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -7272,7 +7240,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>733</v>
+        <v>654</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -7300,7 +7268,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>630</v>
+        <v>963</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -7328,7 +7296,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -7356,7 +7324,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>670</v>
+        <v>893</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -7384,7 +7352,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>990</v>
+        <v>619</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -7412,7 +7380,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>939</v>
+        <v>654</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -7440,7 +7408,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>502</v>
+        <v>684</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -7546,7 +7514,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -7574,7 +7542,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>660</v>
+        <v>777</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -7602,7 +7570,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -7630,7 +7598,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>676</v>
+        <v>521</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -7658,7 +7626,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>906</v>
+        <v>968</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -7686,7 +7654,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>553</v>
+        <v>654</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -7714,7 +7682,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>783</v>
+        <v>806</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -7742,7 +7710,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>843</v>
+        <v>962</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -7770,7 +7738,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>811</v>
+        <v>842</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -7798,7 +7766,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -7826,7 +7794,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>952</v>
+        <v>712</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -7854,7 +7822,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>694</v>
+        <v>550</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -7882,7 +7850,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>666</v>
+        <v>531</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -7910,7 +7878,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>618</v>
+        <v>787</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -7938,7 +7906,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>802</v>
+        <v>761</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -8018,7 +7986,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>637</v>
+        <v>821</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -8046,7 +8014,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -8074,7 +8042,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>691</v>
+        <v>560</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -8102,7 +8070,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>983</v>
+        <v>736</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -8110,7 +8078,7 @@
         </is>
       </c>
       <c r="F282" t="n">
-        <v>173.02</v>
+        <v>175.45</v>
       </c>
     </row>
     <row r="283">
@@ -8121,7 +8089,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 01шт</t>
+          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 02шт</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8130,7 +8098,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>507</v>
+        <v>949</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -8149,7 +8117,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 02шт</t>
+          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 03шт</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8158,7 +8126,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>554</v>
+        <v>831</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -8166,7 +8134,7 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>173.02</v>
+        <v>175.45</v>
       </c>
     </row>
     <row r="285">
@@ -8177,16 +8145,16 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 02шт</t>
+          <t>ВВП ORJ СОБ TUNDRA 2кг 01шт</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>064992714772</t>
+          <t>064992185206</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>555</v>
+        <v>626</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -8194,7 +8162,7 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>175.45</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="286">
@@ -8205,16 +8173,16 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 03шт</t>
+          <t>ВВП ORJ СОБ TUNDRA 2кг 02шт</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>064992714772</t>
+          <t>064992185206</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>668</v>
+        <v>571</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -8222,7 +8190,7 @@
         </is>
       </c>
       <c r="F286" t="n">
-        <v>173.02</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="287">
@@ -8233,16 +8201,16 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ SMALL BREED Птица 4.5кг 03шт</t>
+          <t>ВВП ORJ СОБ TUNDRA 2кг 03шт</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>064992714772</t>
+          <t>064992185206</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>577</v>
+        <v>816</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -8250,7 +8218,7 @@
         </is>
       </c>
       <c r="F287" t="n">
-        <v>175.45</v>
+        <v>101.54</v>
       </c>
     </row>
     <row r="288">
@@ -8261,16 +8229,16 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ TUNDRA 2кг 01шт</t>
+          <t>ВВП ORJ СОБ TUNDRA Дичь 11.4кг 01шт</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>064992185206</t>
+          <t>064992185121</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>875</v>
+        <v>510</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -8278,7 +8246,7 @@
         </is>
       </c>
       <c r="F288" t="n">
-        <v>101.54</v>
+        <v>442.04</v>
       </c>
     </row>
     <row r="289">
@@ -8289,16 +8257,16 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ TUNDRA 2кг 02шт</t>
+          <t>ВВП ORJ СОБ TUNDRA Дичь 11.4кг 02шт</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>064992185206</t>
+          <t>064992185121</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>764</v>
+        <v>907</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -8306,7 +8274,7 @@
         </is>
       </c>
       <c r="F289" t="n">
-        <v>101.54</v>
+        <v>442.04</v>
       </c>
     </row>
     <row r="290">
@@ -8317,16 +8285,16 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ TUNDRA 2кг 03шт</t>
+          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 1.8кг 01шт</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>064992185206</t>
+          <t>064992722524</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>965</v>
+        <v>797</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -8334,7 +8302,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>101.54</v>
+        <v>90.51000000000001</v>
       </c>
     </row>
     <row r="291">
@@ -8345,16 +8313,16 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ TUNDRA Дичь 11.4кг 01шт</t>
+          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 1.8кг 02шт</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>064992185121</t>
+          <t>064992722524</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>547</v>
+        <v>746</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -8362,7 +8330,7 @@
         </is>
       </c>
       <c r="F291" t="n">
-        <v>442.04</v>
+        <v>90.51000000000001</v>
       </c>
     </row>
     <row r="292">
@@ -8373,16 +8341,16 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ TUNDRA Дичь 11.4кг 02шт</t>
+          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 1.8кг 03шт</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>064992185121</t>
+          <t>064992722524</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -8390,7 +8358,7 @@
         </is>
       </c>
       <c r="F292" t="n">
-        <v>442.04</v>
+        <v>90.51000000000001</v>
       </c>
     </row>
     <row r="293">
@@ -8401,16 +8369,16 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 1.8кг 01шт</t>
+          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 4.5кг 01шт</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>064992722524</t>
+          <t>064992722531</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>742</v>
+        <v>673</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -8418,7 +8386,7 @@
         </is>
       </c>
       <c r="F293" t="n">
-        <v>90.51000000000001</v>
+        <v>180.4</v>
       </c>
     </row>
     <row r="294">
@@ -8429,16 +8397,16 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 1.8кг 02шт</t>
+          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 4.5кг 02шт</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>064992722524</t>
+          <t>064992722531</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>517</v>
+        <v>925</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -8446,7 +8414,7 @@
         </is>
       </c>
       <c r="F294" t="n">
-        <v>90.51000000000001</v>
+        <v>180.4</v>
       </c>
     </row>
     <row r="295">
@@ -8457,16 +8425,16 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 1.8кг 03шт</t>
+          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 4.5кг 03шт</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>064992722524</t>
+          <t>064992722531</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>719</v>
+        <v>983</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -8474,90 +8442,6 @@
         </is>
       </c>
       <c r="F295" t="n">
-        <v>90.51000000000001</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 4.5кг 01шт</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>064992722531</t>
-        </is>
-      </c>
-      <c r="D296" t="n">
-        <v>510</v>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-      <c r="F296" t="n">
-        <v>180.4</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 4.5кг 02шт</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>064992722531</t>
-        </is>
-      </c>
-      <c r="D297" t="n">
-        <v>650</v>
-      </c>
-      <c r="E297" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-      <c r="F297" t="n">
-        <v>180.4</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>ФБС Боровляны ООО (1020001420895000)</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>ВВП ORJ СОБ ВЗР DOG MARINE FISH SM BR 4.5кг 03шт</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>064992722531</t>
-        </is>
-      </c>
-      <c r="D298" t="n">
-        <v>887</v>
-      </c>
-      <c r="E298" t="inlineStr">
-        <is>
-          <t>Заполнены</t>
-        </is>
-      </c>
-      <c r="F298" t="n">
         <v>180.4</v>
       </c>
     </row>

--- a/result/СПК ВВП.xlsx
+++ b/result/СПК ВВП.xlsx
@@ -313,6 +313,9 @@
     <t>ВВП ACN СОБ PACIFICA RECIPE Рыба 2кг 03шт</t>
   </si>
   <si>
+    <t>ВВП ACN СОБ PRAIRE POULTRY Цып Инд 14.5кг 01шт</t>
+  </si>
+  <si>
     <t>ВВП ACN СОБ PRAIRE POULTRY Цып Инд 2кг 01шт</t>
   </si>
   <si>
@@ -328,9 +331,6 @@
     <t>ВВП ACN СОБ PRAIRE POULTRY Цып Инд 9.7кг 02шт</t>
   </si>
   <si>
-    <t>ВВП ACN СОБ PRAIRIE POULTRY 14.5кг 01шт</t>
-  </si>
-  <si>
     <t>ВВП ACN СОБ PUPPY LARGE BREED Цыпленок 11.4кг 01шт</t>
   </si>
   <si>
@@ -817,13 +817,13 @@
     <t>ВВП ORJ СОБ PUPPY LARGE 11.4кг 02шт</t>
   </si>
   <si>
-    <t>ВВП ORJ СОБ PUPPY SMALL BREED Птица рыба 1.8кг 1шт</t>
-  </si>
-  <si>
-    <t>ВВП ORJ СОБ PUPPY SMALL BREED Птица рыба 1.8кг 2шт</t>
-  </si>
-  <si>
-    <t>ВВП ORJ СОБ PUPPY SMALL BREED Птица рыба 1.8кг 3шт</t>
+    <t>ВВП ORJ СОБ PUPPY SMALL BREED Птица 1.8кг 01шт</t>
+  </si>
+  <si>
+    <t>ВВП ORJ СОБ PUPPY SMALL BREED Птица 1.8кг 02шт</t>
+  </si>
+  <si>
+    <t>ВВП ORJ СОБ PUPPY SMALL BREED Птица 1.8кг 03шт</t>
   </si>
   <si>
     <t>ВВП ORJ СОБ PUPPY Птица 11.4кг 01шт</t>
@@ -838,19 +838,19 @@
     <t>ВВП ORJ СОБ PUPPY Птица 2кг 03шт</t>
   </si>
   <si>
-    <t>ВВП ORJ СОБ REGIONAL RED Птица 11.4кг 01шт</t>
-  </si>
-  <si>
-    <t>ВВП ORJ СОБ REGIONAL RED Птица 11.4кг 02шт</t>
-  </si>
-  <si>
-    <t>ВВП ORJ СОБ REGIONAL RED Птица 2кг 01шт</t>
-  </si>
-  <si>
-    <t>ВВП ORJ СОБ REGIONAL RED Птица 2кг 02шт</t>
-  </si>
-  <si>
-    <t>ВВП ORJ СОБ REGIONAL RED Птица 2кг 03шт</t>
+    <t>ВВП ORJ СОБ REGIONAL RED 11.4кг 01шт</t>
+  </si>
+  <si>
+    <t>ВВП ORJ СОБ REGIONAL RED 11.4кг 02шт</t>
+  </si>
+  <si>
+    <t>ВВП ORJ СОБ REGIONAL RED 2кг 01шт</t>
+  </si>
+  <si>
+    <t>ВВП ORJ СОБ REGIONAL RED 2кг 02шт</t>
+  </si>
+  <si>
+    <t>ВВП ORJ СОБ REGIONAL RED 2кг 03шт</t>
   </si>
   <si>
     <t>ВВП ORJ СОБ SENIOR Птица 11.4кг 01шт</t>
@@ -1027,13 +1027,13 @@
     <t>064992541200</t>
   </si>
   <si>
+    <t>064992560171</t>
+  </si>
+  <si>
     <t>064992560218</t>
   </si>
   <si>
     <t>064992560119</t>
-  </si>
-  <si>
-    <t>064992560171</t>
   </si>
   <si>
     <t>064992501112</t>
@@ -1746,13 +1746,13 @@
         <v>303</v>
       </c>
       <c r="D2">
-        <v>520</v>
+        <v>983</v>
       </c>
       <c r="E2" t="s">
         <v>445</v>
       </c>
       <c r="F2">
-        <v>16.8</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1766,13 +1766,13 @@
         <v>303</v>
       </c>
       <c r="D3">
-        <v>882</v>
+        <v>709</v>
       </c>
       <c r="E3" t="s">
         <v>445</v>
       </c>
       <c r="F3">
-        <v>16.8</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1786,13 +1786,13 @@
         <v>303</v>
       </c>
       <c r="D4">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E4" t="s">
         <v>445</v>
       </c>
       <c r="F4">
-        <v>16.8</v>
+        <v>16.42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1908,7 +1908,7 @@
         <v>306</v>
       </c>
       <c r="D11">
-        <v>996</v>
+        <v>800</v>
       </c>
       <c r="E11" t="s">
         <v>445</v>
@@ -1928,7 +1928,7 @@
         <v>306</v>
       </c>
       <c r="D12">
-        <v>851</v>
+        <v>787</v>
       </c>
       <c r="E12" t="s">
         <v>445</v>
@@ -1948,7 +1948,7 @@
         <v>306</v>
       </c>
       <c r="D13">
-        <v>919</v>
+        <v>693</v>
       </c>
       <c r="E13" t="s">
         <v>445</v>
@@ -2121,7 +2121,7 @@
         <v>310</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>445</v>
@@ -2223,13 +2223,10 @@
         <v>312</v>
       </c>
       <c r="D29">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
         <v>445</v>
-      </c>
-      <c r="F29">
-        <v>143.68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2243,13 +2240,10 @@
         <v>312</v>
       </c>
       <c r="D30">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="E30" t="s">
         <v>445</v>
-      </c>
-      <c r="F30">
-        <v>143.68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2263,13 +2257,10 @@
         <v>312</v>
       </c>
       <c r="D31">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
         <v>445</v>
-      </c>
-      <c r="F31">
-        <v>143.68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2283,7 +2274,7 @@
         <v>313</v>
       </c>
       <c r="D32">
-        <v>678</v>
+        <v>854</v>
       </c>
       <c r="E32" t="s">
         <v>445</v>
@@ -2303,7 +2294,7 @@
         <v>313</v>
       </c>
       <c r="D33">
-        <v>728</v>
+        <v>577</v>
       </c>
       <c r="E33" t="s">
         <v>445</v>
@@ -2323,7 +2314,7 @@
         <v>313</v>
       </c>
       <c r="D34">
-        <v>882</v>
+        <v>675</v>
       </c>
       <c r="E34" t="s">
         <v>445</v>
@@ -2496,7 +2487,7 @@
         <v>317</v>
       </c>
       <c r="D44">
-        <v>832</v>
+        <v>517</v>
       </c>
       <c r="E44" t="s">
         <v>445</v>
@@ -2516,7 +2507,7 @@
         <v>317</v>
       </c>
       <c r="D45">
-        <v>545</v>
+        <v>989</v>
       </c>
       <c r="E45" t="s">
         <v>445</v>
@@ -2536,7 +2527,7 @@
         <v>317</v>
       </c>
       <c r="D46">
-        <v>524</v>
+        <v>794</v>
       </c>
       <c r="E46" t="s">
         <v>445</v>
@@ -2607,7 +2598,7 @@
         <v>319</v>
       </c>
       <c r="D50">
-        <v>621</v>
+        <v>890</v>
       </c>
       <c r="E50" t="s">
         <v>445</v>
@@ -2627,7 +2618,7 @@
         <v>319</v>
       </c>
       <c r="D51">
-        <v>580</v>
+        <v>623</v>
       </c>
       <c r="E51" t="s">
         <v>445</v>
@@ -2647,7 +2638,7 @@
         <v>319</v>
       </c>
       <c r="D52">
-        <v>969</v>
+        <v>838</v>
       </c>
       <c r="E52" t="s">
         <v>445</v>
@@ -2769,7 +2760,7 @@
         <v>322</v>
       </c>
       <c r="D59">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="E59" t="s">
         <v>445</v>
@@ -2789,7 +2780,7 @@
         <v>322</v>
       </c>
       <c r="D60">
-        <v>952</v>
+        <v>858</v>
       </c>
       <c r="E60" t="s">
         <v>445</v>
@@ -2809,13 +2800,10 @@
         <v>323</v>
       </c>
       <c r="D61">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E61" t="s">
         <v>445</v>
-      </c>
-      <c r="F61">
-        <v>377.24</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2829,7 +2817,7 @@
         <v>324</v>
       </c>
       <c r="D62">
-        <v>810</v>
+        <v>969</v>
       </c>
       <c r="E62" t="s">
         <v>445</v>
@@ -2849,7 +2837,7 @@
         <v>324</v>
       </c>
       <c r="D63">
-        <v>554</v>
+        <v>717</v>
       </c>
       <c r="E63" t="s">
         <v>445</v>
@@ -2869,7 +2857,7 @@
         <v>324</v>
       </c>
       <c r="D64">
-        <v>840</v>
+        <v>612</v>
       </c>
       <c r="E64" t="s">
         <v>445</v>
@@ -2889,13 +2877,10 @@
         <v>325</v>
       </c>
       <c r="D65">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>445</v>
-      </c>
-      <c r="F65">
-        <v>64.56</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2909,13 +2894,10 @@
         <v>325</v>
       </c>
       <c r="D66">
-        <v>807</v>
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>445</v>
-      </c>
-      <c r="F66">
-        <v>64.56</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2929,13 +2911,10 @@
         <v>325</v>
       </c>
       <c r="D67">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="E67" t="s">
         <v>445</v>
-      </c>
-      <c r="F67">
-        <v>64.56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3000,10 +2979,13 @@
         <v>327</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="E71" t="s">
         <v>445</v>
+      </c>
+      <c r="F71">
+        <v>355.09</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3017,10 +2999,13 @@
         <v>327</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="E72" t="s">
         <v>445</v>
+      </c>
+      <c r="F72">
+        <v>355.09</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3119,10 +3104,13 @@
         <v>330</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="E78" t="s">
         <v>445</v>
+      </c>
+      <c r="F78">
+        <v>489.26</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3272,7 +3260,7 @@
         <v>334</v>
       </c>
       <c r="D87">
-        <v>924</v>
+        <v>626</v>
       </c>
       <c r="E87" t="s">
         <v>445</v>
@@ -3292,7 +3280,7 @@
         <v>334</v>
       </c>
       <c r="D88">
-        <v>505</v>
+        <v>617</v>
       </c>
       <c r="E88" t="s">
         <v>445</v>
@@ -3312,7 +3300,7 @@
         <v>335</v>
       </c>
       <c r="D89">
-        <v>629</v>
+        <v>522</v>
       </c>
       <c r="E89" t="s">
         <v>445</v>
@@ -3332,7 +3320,7 @@
         <v>335</v>
       </c>
       <c r="D90">
-        <v>583</v>
+        <v>720</v>
       </c>
       <c r="E90" t="s">
         <v>445</v>
@@ -3403,10 +3391,13 @@
         <v>337</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="E94" t="s">
         <v>445</v>
+      </c>
+      <c r="F94">
+        <v>254.47</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3417,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -3434,7 +3425,7 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -3454,13 +3445,10 @@
         <v>338</v>
       </c>
       <c r="D97">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="E97" t="s">
         <v>445</v>
-      </c>
-      <c r="F97">
-        <v>178.6</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3471,10 +3459,10 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D98">
-        <v>848</v>
+        <v>692</v>
       </c>
       <c r="E98" t="s">
         <v>445</v>
@@ -3494,13 +3482,13 @@
         <v>339</v>
       </c>
       <c r="D99">
-        <v>855</v>
+        <v>698</v>
       </c>
       <c r="E99" t="s">
         <v>445</v>
       </c>
       <c r="F99">
-        <v>254.47</v>
+        <v>178.6</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3514,7 +3502,7 @@
         <v>340</v>
       </c>
       <c r="D100">
-        <v>969</v>
+        <v>540</v>
       </c>
       <c r="E100" t="s">
         <v>445</v>
@@ -3534,7 +3522,7 @@
         <v>340</v>
       </c>
       <c r="D101">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="E101" t="s">
         <v>445</v>
@@ -3554,7 +3542,7 @@
         <v>341</v>
       </c>
       <c r="D102">
-        <v>886</v>
+        <v>867</v>
       </c>
       <c r="E102" t="s">
         <v>445</v>
@@ -3574,7 +3562,7 @@
         <v>342</v>
       </c>
       <c r="D103">
-        <v>879</v>
+        <v>906</v>
       </c>
       <c r="E103" t="s">
         <v>445</v>
@@ -3594,7 +3582,7 @@
         <v>342</v>
       </c>
       <c r="D104">
-        <v>969</v>
+        <v>517</v>
       </c>
       <c r="E104" t="s">
         <v>445</v>
@@ -3614,7 +3602,7 @@
         <v>342</v>
       </c>
       <c r="D105">
-        <v>572</v>
+        <v>863</v>
       </c>
       <c r="E105" t="s">
         <v>445</v>
@@ -3634,7 +3622,7 @@
         <v>343</v>
       </c>
       <c r="D106">
-        <v>952</v>
+        <v>558</v>
       </c>
       <c r="E106" t="s">
         <v>445</v>
@@ -3654,7 +3642,7 @@
         <v>343</v>
       </c>
       <c r="D107">
-        <v>656</v>
+        <v>871</v>
       </c>
       <c r="E107" t="s">
         <v>445</v>
@@ -3674,7 +3662,7 @@
         <v>344</v>
       </c>
       <c r="D108">
-        <v>904</v>
+        <v>660</v>
       </c>
       <c r="E108" t="s">
         <v>445</v>
@@ -3694,7 +3682,7 @@
         <v>345</v>
       </c>
       <c r="D109">
-        <v>730</v>
+        <v>766</v>
       </c>
       <c r="E109" t="s">
         <v>445</v>
@@ -3714,7 +3702,7 @@
         <v>345</v>
       </c>
       <c r="D110">
-        <v>777</v>
+        <v>524</v>
       </c>
       <c r="E110" t="s">
         <v>445</v>
@@ -3734,7 +3722,7 @@
         <v>345</v>
       </c>
       <c r="D111">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="E111" t="s">
         <v>445</v>
@@ -3890,13 +3878,10 @@
         <v>349</v>
       </c>
       <c r="D120">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="E120" t="s">
         <v>445</v>
-      </c>
-      <c r="F120">
-        <v>280.75</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3995,13 +3980,13 @@
         <v>352</v>
       </c>
       <c r="D126">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="E126" t="s">
         <v>445</v>
       </c>
       <c r="F126">
-        <v>242.29</v>
+        <v>253.17</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -4015,13 +4000,13 @@
         <v>352</v>
       </c>
       <c r="D127">
-        <v>526</v>
+        <v>622</v>
       </c>
       <c r="E127" t="s">
         <v>445</v>
       </c>
       <c r="F127">
-        <v>242.29</v>
+        <v>253.17</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -4035,7 +4020,7 @@
         <v>353</v>
       </c>
       <c r="D128">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="E128" t="s">
         <v>445</v>
@@ -4055,7 +4040,7 @@
         <v>353</v>
       </c>
       <c r="D129">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="E129" t="s">
         <v>445</v>
@@ -4075,7 +4060,7 @@
         <v>353</v>
       </c>
       <c r="D130">
-        <v>812</v>
+        <v>510</v>
       </c>
       <c r="E130" t="s">
         <v>445</v>
@@ -4095,7 +4080,7 @@
         <v>354</v>
       </c>
       <c r="D131">
-        <v>574</v>
+        <v>986</v>
       </c>
       <c r="E131" t="s">
         <v>445</v>
@@ -4115,7 +4100,7 @@
         <v>354</v>
       </c>
       <c r="D132">
-        <v>513</v>
+        <v>882</v>
       </c>
       <c r="E132" t="s">
         <v>445</v>
@@ -4135,7 +4120,7 @@
         <v>355</v>
       </c>
       <c r="D133">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="E133" t="s">
         <v>445</v>
@@ -4240,7 +4225,7 @@
         <v>358</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
         <v>445</v>
@@ -4410,7 +4395,7 @@
         <v>365</v>
       </c>
       <c r="D149">
-        <v>615</v>
+        <v>530</v>
       </c>
       <c r="E149" t="s">
         <v>445</v>
@@ -4430,7 +4415,7 @@
         <v>366</v>
       </c>
       <c r="D150">
-        <v>709</v>
+        <v>592</v>
       </c>
       <c r="E150" t="s">
         <v>445</v>
@@ -4450,7 +4435,7 @@
         <v>367</v>
       </c>
       <c r="D151">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="E151" t="s">
         <v>445</v>
@@ -4470,7 +4455,7 @@
         <v>368</v>
       </c>
       <c r="D152">
-        <v>787</v>
+        <v>536</v>
       </c>
       <c r="E152" t="s">
         <v>445</v>
@@ -4490,7 +4475,7 @@
         <v>369</v>
       </c>
       <c r="D153">
-        <v>641</v>
+        <v>558</v>
       </c>
       <c r="E153" t="s">
         <v>445</v>
@@ -4510,7 +4495,7 @@
         <v>370</v>
       </c>
       <c r="D154">
-        <v>598</v>
+        <v>512</v>
       </c>
       <c r="E154" t="s">
         <v>445</v>
@@ -4530,7 +4515,7 @@
         <v>371</v>
       </c>
       <c r="D155">
-        <v>893</v>
+        <v>998</v>
       </c>
       <c r="E155" t="s">
         <v>445</v>
@@ -4550,7 +4535,7 @@
         <v>372</v>
       </c>
       <c r="D156">
-        <v>922</v>
+        <v>678</v>
       </c>
       <c r="E156" t="s">
         <v>445</v>
@@ -4587,7 +4572,7 @@
         <v>374</v>
       </c>
       <c r="D158">
-        <v>904</v>
+        <v>820</v>
       </c>
       <c r="E158" t="s">
         <v>445</v>
@@ -4641,7 +4626,7 @@
         <v>377</v>
       </c>
       <c r="D161">
-        <v>738</v>
+        <v>998</v>
       </c>
       <c r="E161" t="s">
         <v>445</v>
@@ -4661,7 +4646,7 @@
         <v>378</v>
       </c>
       <c r="D162">
-        <v>523</v>
+        <v>742</v>
       </c>
       <c r="E162" t="s">
         <v>445</v>
@@ -4766,10 +4751,13 @@
         <v>384</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="E168" t="s">
         <v>445</v>
+      </c>
+      <c r="F168">
+        <v>163.35</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4800,7 +4788,7 @@
         <v>386</v>
       </c>
       <c r="D170">
-        <v>908</v>
+        <v>999</v>
       </c>
       <c r="E170" t="s">
         <v>445</v>
@@ -4820,10 +4808,13 @@
         <v>387</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="E171" t="s">
         <v>445</v>
+      </c>
+      <c r="F171">
+        <v>228.97</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4871,7 +4862,7 @@
         <v>390</v>
       </c>
       <c r="D174">
-        <v>862</v>
+        <v>825</v>
       </c>
       <c r="E174" t="s">
         <v>445</v>
@@ -4891,7 +4882,7 @@
         <v>391</v>
       </c>
       <c r="D175">
-        <v>938</v>
+        <v>639</v>
       </c>
       <c r="E175" t="s">
         <v>445</v>
@@ -4911,7 +4902,7 @@
         <v>392</v>
       </c>
       <c r="D176">
-        <v>783</v>
+        <v>535</v>
       </c>
       <c r="E176" t="s">
         <v>445</v>
@@ -4931,7 +4922,7 @@
         <v>393</v>
       </c>
       <c r="D177">
-        <v>822</v>
+        <v>913</v>
       </c>
       <c r="E177" t="s">
         <v>445</v>
@@ -4951,7 +4942,7 @@
         <v>394</v>
       </c>
       <c r="D178">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="E178" t="s">
         <v>445</v>
@@ -4971,7 +4962,7 @@
         <v>395</v>
       </c>
       <c r="D179">
-        <v>607</v>
+        <v>816</v>
       </c>
       <c r="E179" t="s">
         <v>445</v>
@@ -5008,7 +4999,7 @@
         <v>397</v>
       </c>
       <c r="D181">
-        <v>946</v>
+        <v>571</v>
       </c>
       <c r="E181" t="s">
         <v>445</v>
@@ -5062,7 +5053,7 @@
         <v>400</v>
       </c>
       <c r="D184">
-        <v>752</v>
+        <v>885</v>
       </c>
       <c r="E184" t="s">
         <v>445</v>
@@ -5099,7 +5090,7 @@
         <v>402</v>
       </c>
       <c r="D186">
-        <v>589</v>
+        <v>712</v>
       </c>
       <c r="E186" t="s">
         <v>445</v>
@@ -5119,7 +5110,7 @@
         <v>403</v>
       </c>
       <c r="D187">
-        <v>668</v>
+        <v>904</v>
       </c>
       <c r="E187" t="s">
         <v>445</v>
@@ -5156,7 +5147,7 @@
         <v>405</v>
       </c>
       <c r="D189">
-        <v>544</v>
+        <v>858</v>
       </c>
       <c r="E189" t="s">
         <v>445</v>
@@ -5176,7 +5167,7 @@
         <v>405</v>
       </c>
       <c r="D190">
-        <v>611</v>
+        <v>765</v>
       </c>
       <c r="E190" t="s">
         <v>445</v>
@@ -5196,7 +5187,7 @@
         <v>405</v>
       </c>
       <c r="D191">
-        <v>588</v>
+        <v>644</v>
       </c>
       <c r="E191" t="s">
         <v>445</v>
@@ -5267,7 +5258,7 @@
         <v>407</v>
       </c>
       <c r="D195">
-        <v>961</v>
+        <v>837</v>
       </c>
       <c r="E195" t="s">
         <v>445</v>
@@ -5287,7 +5278,7 @@
         <v>407</v>
       </c>
       <c r="D196">
-        <v>684</v>
+        <v>806</v>
       </c>
       <c r="E196" t="s">
         <v>445</v>
@@ -5307,7 +5298,7 @@
         <v>407</v>
       </c>
       <c r="D197">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="E197" t="s">
         <v>445</v>
@@ -5327,7 +5318,7 @@
         <v>408</v>
       </c>
       <c r="D198">
-        <v>737</v>
+        <v>815</v>
       </c>
       <c r="E198" t="s">
         <v>445</v>
@@ -5347,7 +5338,7 @@
         <v>408</v>
       </c>
       <c r="D199">
-        <v>844</v>
+        <v>890</v>
       </c>
       <c r="E199" t="s">
         <v>445</v>
@@ -5367,7 +5358,7 @@
         <v>408</v>
       </c>
       <c r="D200">
-        <v>830</v>
+        <v>916</v>
       </c>
       <c r="E200" t="s">
         <v>445</v>
@@ -5387,7 +5378,7 @@
         <v>409</v>
       </c>
       <c r="D201">
-        <v>873</v>
+        <v>847</v>
       </c>
       <c r="E201" t="s">
         <v>445</v>
@@ -5407,7 +5398,7 @@
         <v>409</v>
       </c>
       <c r="D202">
-        <v>718</v>
+        <v>848</v>
       </c>
       <c r="E202" t="s">
         <v>445</v>
@@ -5427,7 +5418,7 @@
         <v>409</v>
       </c>
       <c r="D203">
-        <v>576</v>
+        <v>706</v>
       </c>
       <c r="E203" t="s">
         <v>445</v>
@@ -5549,7 +5540,7 @@
         <v>412</v>
       </c>
       <c r="D210">
-        <v>601</v>
+        <v>885</v>
       </c>
       <c r="E210" t="s">
         <v>445</v>
@@ -5569,7 +5560,7 @@
         <v>412</v>
       </c>
       <c r="D211">
-        <v>740</v>
+        <v>808</v>
       </c>
       <c r="E211" t="s">
         <v>445</v>
@@ -5589,7 +5580,7 @@
         <v>412</v>
       </c>
       <c r="D212">
-        <v>939</v>
+        <v>742</v>
       </c>
       <c r="E212" t="s">
         <v>445</v>
@@ -5745,13 +5736,13 @@
         <v>416</v>
       </c>
       <c r="D221">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="E221" t="s">
         <v>445</v>
       </c>
       <c r="F221">
-        <v>254.95</v>
+        <v>249.08</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5765,7 +5756,7 @@
         <v>417</v>
       </c>
       <c r="D222">
-        <v>853</v>
+        <v>725</v>
       </c>
       <c r="E222" t="s">
         <v>445</v>
@@ -5785,7 +5776,7 @@
         <v>417</v>
       </c>
       <c r="D223">
-        <v>787</v>
+        <v>996</v>
       </c>
       <c r="E223" t="s">
         <v>445</v>
@@ -5805,7 +5796,7 @@
         <v>417</v>
       </c>
       <c r="D224">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="E224" t="s">
         <v>445</v>
@@ -5859,13 +5850,13 @@
         <v>416</v>
       </c>
       <c r="D227">
-        <v>534</v>
+        <v>843</v>
       </c>
       <c r="E227" t="s">
         <v>445</v>
       </c>
       <c r="F227">
-        <v>254.95</v>
+        <v>249.08</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5879,13 +5870,13 @@
         <v>416</v>
       </c>
       <c r="D228">
-        <v>798</v>
+        <v>720</v>
       </c>
       <c r="E228" t="s">
         <v>445</v>
       </c>
       <c r="F228">
-        <v>254.95</v>
+        <v>249.08</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5899,7 +5890,7 @@
         <v>418</v>
       </c>
       <c r="D229">
-        <v>769</v>
+        <v>958</v>
       </c>
       <c r="E229" t="s">
         <v>445</v>
@@ -5919,7 +5910,7 @@
         <v>418</v>
       </c>
       <c r="D230">
-        <v>820</v>
+        <v>854</v>
       </c>
       <c r="E230" t="s">
         <v>445</v>
@@ -5939,7 +5930,7 @@
         <v>418</v>
       </c>
       <c r="D231">
-        <v>800</v>
+        <v>579</v>
       </c>
       <c r="E231" t="s">
         <v>445</v>
@@ -5959,7 +5950,7 @@
         <v>419</v>
       </c>
       <c r="D232">
-        <v>892</v>
+        <v>731</v>
       </c>
       <c r="E232" t="s">
         <v>445</v>
@@ -5979,7 +5970,7 @@
         <v>419</v>
       </c>
       <c r="D233">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E233" t="s">
         <v>445</v>
@@ -5999,7 +5990,7 @@
         <v>419</v>
       </c>
       <c r="D234">
-        <v>699</v>
+        <v>889</v>
       </c>
       <c r="E234" t="s">
         <v>445</v>
@@ -6019,7 +6010,7 @@
         <v>420</v>
       </c>
       <c r="D235">
-        <v>663</v>
+        <v>552</v>
       </c>
       <c r="E235" t="s">
         <v>445</v>
@@ -6039,7 +6030,7 @@
         <v>420</v>
       </c>
       <c r="D236">
-        <v>640</v>
+        <v>514</v>
       </c>
       <c r="E236" t="s">
         <v>445</v>
@@ -6059,7 +6050,7 @@
         <v>420</v>
       </c>
       <c r="D237">
-        <v>743</v>
+        <v>881</v>
       </c>
       <c r="E237" t="s">
         <v>445</v>
@@ -6181,7 +6172,7 @@
         <v>423</v>
       </c>
       <c r="D244">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="E244" t="s">
         <v>445</v>
@@ -6201,7 +6192,7 @@
         <v>423</v>
       </c>
       <c r="D245">
-        <v>937</v>
+        <v>811</v>
       </c>
       <c r="E245" t="s">
         <v>445</v>
@@ -6221,7 +6212,7 @@
         <v>423</v>
       </c>
       <c r="D246">
-        <v>614</v>
+        <v>887</v>
       </c>
       <c r="E246" t="s">
         <v>445</v>
@@ -6241,7 +6232,7 @@
         <v>424</v>
       </c>
       <c r="D247">
-        <v>869</v>
+        <v>595</v>
       </c>
       <c r="E247" t="s">
         <v>445</v>
@@ -6261,7 +6252,7 @@
         <v>424</v>
       </c>
       <c r="D248">
-        <v>914</v>
+        <v>517</v>
       </c>
       <c r="E248" t="s">
         <v>445</v>
@@ -6332,7 +6323,7 @@
         <v>426</v>
       </c>
       <c r="D252">
-        <v>581</v>
+        <v>893</v>
       </c>
       <c r="E252" t="s">
         <v>445</v>
@@ -6352,7 +6343,7 @@
         <v>426</v>
       </c>
       <c r="D253">
-        <v>928</v>
+        <v>508</v>
       </c>
       <c r="E253" t="s">
         <v>445</v>
@@ -6389,7 +6380,7 @@
         <v>428</v>
       </c>
       <c r="D255">
-        <v>961</v>
+        <v>628</v>
       </c>
       <c r="E255" t="s">
         <v>445</v>
@@ -6409,7 +6400,7 @@
         <v>428</v>
       </c>
       <c r="D256">
-        <v>614</v>
+        <v>720</v>
       </c>
       <c r="E256" t="s">
         <v>445</v>
@@ -6429,7 +6420,7 @@
         <v>428</v>
       </c>
       <c r="D257">
-        <v>963</v>
+        <v>869</v>
       </c>
       <c r="E257" t="s">
         <v>445</v>
@@ -6449,7 +6440,7 @@
         <v>429</v>
       </c>
       <c r="D258">
-        <v>606</v>
+        <v>649</v>
       </c>
       <c r="E258" t="s">
         <v>445</v>
@@ -6469,7 +6460,7 @@
         <v>429</v>
       </c>
       <c r="D259">
-        <v>716</v>
+        <v>974</v>
       </c>
       <c r="E259" t="s">
         <v>445</v>
@@ -6489,13 +6480,10 @@
         <v>430</v>
       </c>
       <c r="D260">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="E260" t="s">
         <v>445</v>
-      </c>
-      <c r="F260">
-        <v>292.09</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -6509,13 +6497,10 @@
         <v>430</v>
       </c>
       <c r="D261">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="E261" t="s">
         <v>445</v>
-      </c>
-      <c r="F261">
-        <v>292.09</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6580,7 +6565,7 @@
         <v>432</v>
       </c>
       <c r="D265">
-        <v>558</v>
+        <v>891</v>
       </c>
       <c r="E265" t="s">
         <v>445</v>
@@ -6600,7 +6585,7 @@
         <v>433</v>
       </c>
       <c r="D266">
-        <v>585</v>
+        <v>513</v>
       </c>
       <c r="E266" t="s">
         <v>445</v>
@@ -6620,7 +6605,7 @@
         <v>433</v>
       </c>
       <c r="D267">
-        <v>745</v>
+        <v>775</v>
       </c>
       <c r="E267" t="s">
         <v>445</v>
@@ -6640,7 +6625,7 @@
         <v>433</v>
       </c>
       <c r="D268">
-        <v>996</v>
+        <v>564</v>
       </c>
       <c r="E268" t="s">
         <v>445</v>
@@ -6660,7 +6645,7 @@
         <v>434</v>
       </c>
       <c r="D269">
-        <v>972</v>
+        <v>935</v>
       </c>
       <c r="E269" t="s">
         <v>445</v>
@@ -6680,7 +6665,7 @@
         <v>434</v>
       </c>
       <c r="D270">
-        <v>605</v>
+        <v>913</v>
       </c>
       <c r="E270" t="s">
         <v>445</v>
@@ -6700,7 +6685,7 @@
         <v>435</v>
       </c>
       <c r="D271">
-        <v>923</v>
+        <v>514</v>
       </c>
       <c r="E271" t="s">
         <v>445</v>
@@ -6720,7 +6705,7 @@
         <v>435</v>
       </c>
       <c r="D272">
-        <v>830</v>
+        <v>748</v>
       </c>
       <c r="E272" t="s">
         <v>445</v>
@@ -6740,7 +6725,7 @@
         <v>435</v>
       </c>
       <c r="D273">
-        <v>563</v>
+        <v>717</v>
       </c>
       <c r="E273" t="s">
         <v>445</v>
@@ -6760,7 +6745,7 @@
         <v>436</v>
       </c>
       <c r="D274">
-        <v>702</v>
+        <v>620</v>
       </c>
       <c r="E274" t="s">
         <v>445</v>
@@ -6780,7 +6765,7 @@
         <v>436</v>
       </c>
       <c r="D275">
-        <v>652</v>
+        <v>983</v>
       </c>
       <c r="E275" t="s">
         <v>445</v>
@@ -6800,7 +6785,7 @@
         <v>437</v>
       </c>
       <c r="D276">
-        <v>934</v>
+        <v>680</v>
       </c>
       <c r="E276" t="s">
         <v>445</v>
@@ -6820,7 +6805,7 @@
         <v>437</v>
       </c>
       <c r="D277">
-        <v>805</v>
+        <v>739</v>
       </c>
       <c r="E277" t="s">
         <v>445</v>
@@ -6840,7 +6825,7 @@
         <v>437</v>
       </c>
       <c r="D278">
-        <v>713</v>
+        <v>615</v>
       </c>
       <c r="E278" t="s">
         <v>445</v>
@@ -6894,7 +6879,7 @@
         <v>439</v>
       </c>
       <c r="D281">
-        <v>785</v>
+        <v>601</v>
       </c>
       <c r="E281" t="s">
         <v>445</v>
@@ -6914,7 +6899,7 @@
         <v>439</v>
       </c>
       <c r="D282">
-        <v>846</v>
+        <v>962</v>
       </c>
       <c r="E282" t="s">
         <v>445</v>
@@ -6934,7 +6919,7 @@
         <v>439</v>
       </c>
       <c r="D283">
-        <v>987</v>
+        <v>721</v>
       </c>
       <c r="E283" t="s">
         <v>445</v>
@@ -6954,7 +6939,7 @@
         <v>440</v>
       </c>
       <c r="D284">
-        <v>688</v>
+        <v>548</v>
       </c>
       <c r="E284" t="s">
         <v>445</v>
@@ -6974,7 +6959,7 @@
         <v>440</v>
       </c>
       <c r="D285">
-        <v>755</v>
+        <v>509</v>
       </c>
       <c r="E285" t="s">
         <v>445</v>
@@ -6994,7 +6979,7 @@
         <v>440</v>
       </c>
       <c r="D286">
-        <v>789</v>
+        <v>615</v>
       </c>
       <c r="E286" t="s">
         <v>445</v>
@@ -7014,7 +6999,7 @@
         <v>441</v>
       </c>
       <c r="D287">
-        <v>838</v>
+        <v>658</v>
       </c>
       <c r="E287" t="s">
         <v>445</v>
@@ -7034,7 +7019,7 @@
         <v>441</v>
       </c>
       <c r="D288">
-        <v>648</v>
+        <v>518</v>
       </c>
       <c r="E288" t="s">
         <v>445</v>
@@ -7054,7 +7039,7 @@
         <v>441</v>
       </c>
       <c r="D289">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="E289" t="s">
         <v>445</v>
@@ -7074,7 +7059,7 @@
         <v>442</v>
       </c>
       <c r="D290">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E290" t="s">
         <v>445</v>
@@ -7094,7 +7079,7 @@
         <v>442</v>
       </c>
       <c r="D291">
-        <v>620</v>
+        <v>864</v>
       </c>
       <c r="E291" t="s">
         <v>445</v>
@@ -7114,7 +7099,7 @@
         <v>443</v>
       </c>
       <c r="D292">
-        <v>869</v>
+        <v>551</v>
       </c>
       <c r="E292" t="s">
         <v>445</v>
@@ -7134,7 +7119,7 @@
         <v>443</v>
       </c>
       <c r="D293">
-        <v>988</v>
+        <v>574</v>
       </c>
       <c r="E293" t="s">
         <v>445</v>
@@ -7154,7 +7139,7 @@
         <v>443</v>
       </c>
       <c r="D294">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="E294" t="s">
         <v>445</v>
@@ -7174,7 +7159,7 @@
         <v>444</v>
       </c>
       <c r="D295">
-        <v>534</v>
+        <v>872</v>
       </c>
       <c r="E295" t="s">
         <v>445</v>
@@ -7194,7 +7179,7 @@
         <v>444</v>
       </c>
       <c r="D296">
-        <v>525</v>
+        <v>965</v>
       </c>
       <c r="E296" t="s">
         <v>445</v>
@@ -7214,7 +7199,7 @@
         <v>444</v>
       </c>
       <c r="D297">
-        <v>932</v>
+        <v>662</v>
       </c>
       <c r="E297" t="s">
         <v>445</v>

--- a/result/СПК ВВП.xlsx
+++ b/result/СПК ВВП.xlsx
@@ -1755,7 +1755,7 @@
         <v>305</v>
       </c>
       <c r="D2">
-        <v>848</v>
+        <v>807</v>
       </c>
       <c r="F2" t="s">
         <v>447</v>
@@ -1775,7 +1775,7 @@
         <v>305</v>
       </c>
       <c r="D3">
-        <v>931</v>
+        <v>985</v>
       </c>
       <c r="F3" t="s">
         <v>447</v>
@@ -1795,7 +1795,7 @@
         <v>305</v>
       </c>
       <c r="D4">
-        <v>889</v>
+        <v>561</v>
       </c>
       <c r="F4" t="s">
         <v>447</v>
@@ -1917,7 +1917,7 @@
         <v>308</v>
       </c>
       <c r="D11">
-        <v>671</v>
+        <v>732</v>
       </c>
       <c r="F11" t="s">
         <v>447</v>
@@ -1937,7 +1937,7 @@
         <v>308</v>
       </c>
       <c r="D12">
-        <v>710</v>
+        <v>959</v>
       </c>
       <c r="F12" t="s">
         <v>447</v>
@@ -1957,7 +1957,7 @@
         <v>308</v>
       </c>
       <c r="D13">
-        <v>529</v>
+        <v>982</v>
       </c>
       <c r="F13" t="s">
         <v>447</v>
@@ -2283,7 +2283,7 @@
         <v>315</v>
       </c>
       <c r="D32">
-        <v>889</v>
+        <v>802</v>
       </c>
       <c r="F32" t="s">
         <v>447</v>
@@ -2303,7 +2303,7 @@
         <v>315</v>
       </c>
       <c r="D33">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="F33" t="s">
         <v>447</v>
@@ -2323,7 +2323,7 @@
         <v>315</v>
       </c>
       <c r="D34">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="F34" t="s">
         <v>447</v>
@@ -2496,7 +2496,7 @@
         <v>319</v>
       </c>
       <c r="D44">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F44" t="s">
         <v>447</v>
@@ -2516,7 +2516,7 @@
         <v>319</v>
       </c>
       <c r="D45">
-        <v>666</v>
+        <v>996</v>
       </c>
       <c r="F45" t="s">
         <v>447</v>
@@ -2536,7 +2536,7 @@
         <v>319</v>
       </c>
       <c r="D46">
-        <v>820</v>
+        <v>852</v>
       </c>
       <c r="F46" t="s">
         <v>447</v>
@@ -2607,7 +2607,7 @@
         <v>321</v>
       </c>
       <c r="D50">
-        <v>858</v>
+        <v>819</v>
       </c>
       <c r="F50" t="s">
         <v>447</v>
@@ -2627,7 +2627,7 @@
         <v>321</v>
       </c>
       <c r="D51">
-        <v>832</v>
+        <v>709</v>
       </c>
       <c r="F51" t="s">
         <v>447</v>
@@ -2647,7 +2647,7 @@
         <v>321</v>
       </c>
       <c r="D52">
-        <v>863</v>
+        <v>761</v>
       </c>
       <c r="F52" t="s">
         <v>447</v>
@@ -2769,7 +2769,7 @@
         <v>324</v>
       </c>
       <c r="D59">
-        <v>605</v>
+        <v>699</v>
       </c>
       <c r="F59" t="s">
         <v>447</v>
@@ -2789,7 +2789,7 @@
         <v>324</v>
       </c>
       <c r="D60">
-        <v>686</v>
+        <v>784</v>
       </c>
       <c r="F60" t="s">
         <v>447</v>
@@ -2826,7 +2826,7 @@
         <v>326</v>
       </c>
       <c r="D62">
-        <v>858</v>
+        <v>750</v>
       </c>
       <c r="F62" t="s">
         <v>447</v>
@@ -2846,7 +2846,7 @@
         <v>326</v>
       </c>
       <c r="D63">
-        <v>550</v>
+        <v>919</v>
       </c>
       <c r="F63" t="s">
         <v>447</v>
@@ -2866,7 +2866,7 @@
         <v>326</v>
       </c>
       <c r="D64">
-        <v>629</v>
+        <v>715</v>
       </c>
       <c r="F64" t="s">
         <v>447</v>
@@ -2988,7 +2988,7 @@
         <v>329</v>
       </c>
       <c r="D71">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="F71" t="s">
         <v>447</v>
@@ -3008,7 +3008,7 @@
         <v>329</v>
       </c>
       <c r="D72">
-        <v>979</v>
+        <v>952</v>
       </c>
       <c r="F72" t="s">
         <v>447</v>
@@ -3113,7 +3113,7 @@
         <v>332</v>
       </c>
       <c r="D78">
-        <v>704</v>
+        <v>741</v>
       </c>
       <c r="F78" t="s">
         <v>447</v>
@@ -3269,7 +3269,7 @@
         <v>336</v>
       </c>
       <c r="D87">
-        <v>997</v>
+        <v>769</v>
       </c>
       <c r="F87" t="s">
         <v>447</v>
@@ -3289,7 +3289,7 @@
         <v>336</v>
       </c>
       <c r="D88">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="F88" t="s">
         <v>447</v>
@@ -3309,7 +3309,7 @@
         <v>337</v>
       </c>
       <c r="D89">
-        <v>750</v>
+        <v>538</v>
       </c>
       <c r="F89" t="s">
         <v>447</v>
@@ -3329,7 +3329,7 @@
         <v>337</v>
       </c>
       <c r="D90">
-        <v>884</v>
+        <v>545</v>
       </c>
       <c r="F90" t="s">
         <v>447</v>
@@ -3400,7 +3400,7 @@
         <v>339</v>
       </c>
       <c r="D94">
-        <v>511</v>
+        <v>927</v>
       </c>
       <c r="F94" t="s">
         <v>447</v>
@@ -3471,7 +3471,7 @@
         <v>341</v>
       </c>
       <c r="D98">
-        <v>752</v>
+        <v>813</v>
       </c>
       <c r="F98" t="s">
         <v>447</v>
@@ -3491,7 +3491,7 @@
         <v>341</v>
       </c>
       <c r="D99">
-        <v>676</v>
+        <v>727</v>
       </c>
       <c r="F99" t="s">
         <v>447</v>
@@ -3511,7 +3511,7 @@
         <v>342</v>
       </c>
       <c r="D100">
-        <v>687</v>
+        <v>953</v>
       </c>
       <c r="F100" t="s">
         <v>447</v>
@@ -3531,7 +3531,7 @@
         <v>342</v>
       </c>
       <c r="D101">
-        <v>865</v>
+        <v>692</v>
       </c>
       <c r="F101" t="s">
         <v>447</v>
@@ -3551,7 +3551,7 @@
         <v>343</v>
       </c>
       <c r="D102">
-        <v>571</v>
+        <v>674</v>
       </c>
       <c r="F102" t="s">
         <v>447</v>
@@ -3571,7 +3571,7 @@
         <v>344</v>
       </c>
       <c r="D103">
-        <v>654</v>
+        <v>551</v>
       </c>
       <c r="F103" t="s">
         <v>447</v>
@@ -3591,7 +3591,7 @@
         <v>344</v>
       </c>
       <c r="D104">
-        <v>647</v>
+        <v>732</v>
       </c>
       <c r="F104" t="s">
         <v>447</v>
@@ -3611,7 +3611,7 @@
         <v>344</v>
       </c>
       <c r="D105">
-        <v>652</v>
+        <v>533</v>
       </c>
       <c r="F105" t="s">
         <v>447</v>
@@ -3631,7 +3631,7 @@
         <v>345</v>
       </c>
       <c r="D106">
-        <v>922</v>
+        <v>593</v>
       </c>
       <c r="F106" t="s">
         <v>447</v>
@@ -3651,7 +3651,7 @@
         <v>345</v>
       </c>
       <c r="D107">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="F107" t="s">
         <v>447</v>
@@ -3671,7 +3671,7 @@
         <v>346</v>
       </c>
       <c r="D108">
-        <v>911</v>
+        <v>612</v>
       </c>
       <c r="F108" t="s">
         <v>447</v>
@@ -3691,7 +3691,7 @@
         <v>347</v>
       </c>
       <c r="D109">
-        <v>722</v>
+        <v>577</v>
       </c>
       <c r="F109" t="s">
         <v>447</v>
@@ -3711,7 +3711,7 @@
         <v>347</v>
       </c>
       <c r="D110">
-        <v>649</v>
+        <v>862</v>
       </c>
       <c r="F110" t="s">
         <v>447</v>
@@ -3731,7 +3731,7 @@
         <v>347</v>
       </c>
       <c r="D111">
-        <v>746</v>
+        <v>770</v>
       </c>
       <c r="F111" t="s">
         <v>447</v>
@@ -3989,7 +3989,7 @@
         <v>354</v>
       </c>
       <c r="D126">
-        <v>640</v>
+        <v>718</v>
       </c>
       <c r="F126" t="s">
         <v>447</v>
@@ -4009,7 +4009,7 @@
         <v>354</v>
       </c>
       <c r="D127">
-        <v>607</v>
+        <v>734</v>
       </c>
       <c r="F127" t="s">
         <v>447</v>
@@ -4029,7 +4029,7 @@
         <v>355</v>
       </c>
       <c r="D128">
-        <v>645</v>
+        <v>530</v>
       </c>
       <c r="F128" t="s">
         <v>447</v>
@@ -4049,7 +4049,7 @@
         <v>355</v>
       </c>
       <c r="D129">
-        <v>762</v>
+        <v>930</v>
       </c>
       <c r="F129" t="s">
         <v>447</v>
@@ -4069,7 +4069,7 @@
         <v>355</v>
       </c>
       <c r="D130">
-        <v>585</v>
+        <v>805</v>
       </c>
       <c r="F130" t="s">
         <v>447</v>
@@ -4089,7 +4089,7 @@
         <v>356</v>
       </c>
       <c r="D131">
-        <v>876</v>
+        <v>929</v>
       </c>
       <c r="F131" t="s">
         <v>447</v>
@@ -4109,7 +4109,7 @@
         <v>356</v>
       </c>
       <c r="D132">
-        <v>504</v>
+        <v>588</v>
       </c>
       <c r="F132" t="s">
         <v>447</v>
@@ -4129,7 +4129,7 @@
         <v>357</v>
       </c>
       <c r="D133">
-        <v>693</v>
+        <v>867</v>
       </c>
       <c r="F133" t="s">
         <v>447</v>
@@ -4404,7 +4404,7 @@
         <v>367</v>
       </c>
       <c r="D149">
-        <v>552</v>
+        <v>859</v>
       </c>
       <c r="F149" t="s">
         <v>447</v>
@@ -4424,7 +4424,7 @@
         <v>368</v>
       </c>
       <c r="D150">
-        <v>793</v>
+        <v>845</v>
       </c>
       <c r="F150" t="s">
         <v>447</v>
@@ -4444,7 +4444,7 @@
         <v>369</v>
       </c>
       <c r="D151">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="F151" t="s">
         <v>447</v>
@@ -4464,7 +4464,7 @@
         <v>370</v>
       </c>
       <c r="D152">
-        <v>507</v>
+        <v>863</v>
       </c>
       <c r="F152" t="s">
         <v>447</v>
@@ -4484,7 +4484,7 @@
         <v>371</v>
       </c>
       <c r="D153">
-        <v>587</v>
+        <v>989</v>
       </c>
       <c r="F153" t="s">
         <v>447</v>
@@ -4504,7 +4504,7 @@
         <v>372</v>
       </c>
       <c r="D154">
-        <v>969</v>
+        <v>850</v>
       </c>
       <c r="F154" t="s">
         <v>447</v>
@@ -4524,7 +4524,7 @@
         <v>373</v>
       </c>
       <c r="D155">
-        <v>718</v>
+        <v>598</v>
       </c>
       <c r="F155" t="s">
         <v>447</v>
@@ -4544,7 +4544,7 @@
         <v>374</v>
       </c>
       <c r="D156">
-        <v>572</v>
+        <v>823</v>
       </c>
       <c r="F156" t="s">
         <v>447</v>
@@ -4581,7 +4581,7 @@
         <v>376</v>
       </c>
       <c r="D158">
-        <v>999</v>
+        <v>704</v>
       </c>
       <c r="F158" t="s">
         <v>447</v>
@@ -4652,7 +4652,7 @@
         <v>380</v>
       </c>
       <c r="D162">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="F162" t="s">
         <v>447</v>
@@ -4706,7 +4706,7 @@
         <v>383</v>
       </c>
       <c r="D165">
-        <v>921</v>
+        <v>858</v>
       </c>
       <c r="F165" t="s">
         <v>447</v>
@@ -4726,7 +4726,7 @@
         <v>384</v>
       </c>
       <c r="D166">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="F166" t="s">
         <v>447</v>
@@ -4746,7 +4746,7 @@
         <v>385</v>
       </c>
       <c r="D167">
-        <v>954</v>
+        <v>815</v>
       </c>
       <c r="F167" t="s">
         <v>447</v>
@@ -4766,7 +4766,7 @@
         <v>386</v>
       </c>
       <c r="D168">
-        <v>587</v>
+        <v>808</v>
       </c>
       <c r="F168" t="s">
         <v>447</v>
@@ -4871,7 +4871,7 @@
         <v>392</v>
       </c>
       <c r="D174">
-        <v>987</v>
+        <v>873</v>
       </c>
       <c r="F174" t="s">
         <v>447</v>
@@ -4891,7 +4891,7 @@
         <v>393</v>
       </c>
       <c r="D175">
-        <v>866</v>
+        <v>991</v>
       </c>
       <c r="F175" t="s">
         <v>447</v>
@@ -4911,7 +4911,7 @@
         <v>394</v>
       </c>
       <c r="D176">
-        <v>811</v>
+        <v>639</v>
       </c>
       <c r="F176" t="s">
         <v>447</v>
@@ -4931,7 +4931,7 @@
         <v>395</v>
       </c>
       <c r="D177">
-        <v>947</v>
+        <v>780</v>
       </c>
       <c r="F177" t="s">
         <v>447</v>
@@ -4951,7 +4951,7 @@
         <v>396</v>
       </c>
       <c r="D178">
-        <v>956</v>
+        <v>638</v>
       </c>
       <c r="F178" t="s">
         <v>447</v>
@@ -4971,7 +4971,7 @@
         <v>397</v>
       </c>
       <c r="D179">
-        <v>931</v>
+        <v>504</v>
       </c>
       <c r="F179" t="s">
         <v>447</v>
@@ -5008,7 +5008,7 @@
         <v>399</v>
       </c>
       <c r="D181">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F181" t="s">
         <v>447</v>
@@ -5062,7 +5062,7 @@
         <v>402</v>
       </c>
       <c r="D184">
-        <v>887</v>
+        <v>760</v>
       </c>
       <c r="F184" t="s">
         <v>447</v>
@@ -5099,7 +5099,7 @@
         <v>404</v>
       </c>
       <c r="D186">
-        <v>735</v>
+        <v>558</v>
       </c>
       <c r="F186" t="s">
         <v>447</v>
@@ -5119,7 +5119,7 @@
         <v>405</v>
       </c>
       <c r="D187">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="F187" t="s">
         <v>447</v>
@@ -5156,7 +5156,7 @@
         <v>407</v>
       </c>
       <c r="D189">
-        <v>659</v>
+        <v>994</v>
       </c>
       <c r="F189" t="s">
         <v>447</v>
@@ -5176,7 +5176,7 @@
         <v>407</v>
       </c>
       <c r="D190">
-        <v>635</v>
+        <v>853</v>
       </c>
       <c r="F190" t="s">
         <v>447</v>
@@ -5196,7 +5196,7 @@
         <v>407</v>
       </c>
       <c r="D191">
-        <v>656</v>
+        <v>587</v>
       </c>
       <c r="F191" t="s">
         <v>447</v>
@@ -5267,7 +5267,7 @@
         <v>409</v>
       </c>
       <c r="D195">
-        <v>853</v>
+        <v>563</v>
       </c>
       <c r="F195" t="s">
         <v>447</v>
@@ -5287,7 +5287,7 @@
         <v>409</v>
       </c>
       <c r="D196">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="F196" t="s">
         <v>447</v>
@@ -5307,7 +5307,7 @@
         <v>409</v>
       </c>
       <c r="D197">
-        <v>981</v>
+        <v>936</v>
       </c>
       <c r="F197" t="s">
         <v>447</v>
@@ -5327,7 +5327,7 @@
         <v>410</v>
       </c>
       <c r="D198">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F198" t="s">
         <v>447</v>
@@ -5347,7 +5347,7 @@
         <v>410</v>
       </c>
       <c r="D199">
-        <v>537</v>
+        <v>564</v>
       </c>
       <c r="F199" t="s">
         <v>447</v>
@@ -5367,7 +5367,7 @@
         <v>410</v>
       </c>
       <c r="D200">
-        <v>962</v>
+        <v>777</v>
       </c>
       <c r="F200" t="s">
         <v>447</v>
@@ -5387,7 +5387,7 @@
         <v>411</v>
       </c>
       <c r="D201">
-        <v>789</v>
+        <v>945</v>
       </c>
       <c r="F201" t="s">
         <v>447</v>
@@ -5407,7 +5407,7 @@
         <v>411</v>
       </c>
       <c r="D202">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="F202" t="s">
         <v>447</v>
@@ -5427,7 +5427,7 @@
         <v>411</v>
       </c>
       <c r="D203">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="F203" t="s">
         <v>447</v>
@@ -5549,7 +5549,7 @@
         <v>414</v>
       </c>
       <c r="D210">
-        <v>638</v>
+        <v>858</v>
       </c>
       <c r="F210" t="s">
         <v>447</v>
@@ -5569,7 +5569,7 @@
         <v>414</v>
       </c>
       <c r="D211">
-        <v>748</v>
+        <v>812</v>
       </c>
       <c r="F211" t="s">
         <v>447</v>
@@ -5589,7 +5589,7 @@
         <v>414</v>
       </c>
       <c r="D212">
-        <v>543</v>
+        <v>968</v>
       </c>
       <c r="F212" t="s">
         <v>447</v>
@@ -5745,7 +5745,7 @@
         <v>418</v>
       </c>
       <c r="D221">
-        <v>928</v>
+        <v>672</v>
       </c>
       <c r="F221" t="s">
         <v>447</v>
@@ -5765,7 +5765,7 @@
         <v>419</v>
       </c>
       <c r="D222">
-        <v>723</v>
+        <v>517</v>
       </c>
       <c r="F222" t="s">
         <v>447</v>
@@ -5785,7 +5785,7 @@
         <v>419</v>
       </c>
       <c r="D223">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="F223" t="s">
         <v>447</v>
@@ -5805,7 +5805,7 @@
         <v>419</v>
       </c>
       <c r="D224">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="F224" t="s">
         <v>447</v>
@@ -5859,7 +5859,7 @@
         <v>418</v>
       </c>
       <c r="D227">
-        <v>737</v>
+        <v>912</v>
       </c>
       <c r="F227" t="s">
         <v>447</v>
@@ -5879,7 +5879,7 @@
         <v>418</v>
       </c>
       <c r="D228">
-        <v>966</v>
+        <v>722</v>
       </c>
       <c r="F228" t="s">
         <v>447</v>
@@ -5899,7 +5899,7 @@
         <v>420</v>
       </c>
       <c r="D229">
-        <v>972</v>
+        <v>813</v>
       </c>
       <c r="F229" t="s">
         <v>447</v>
@@ -5919,7 +5919,7 @@
         <v>420</v>
       </c>
       <c r="D230">
-        <v>956</v>
+        <v>780</v>
       </c>
       <c r="F230" t="s">
         <v>447</v>
@@ -5939,7 +5939,7 @@
         <v>420</v>
       </c>
       <c r="D231">
-        <v>636</v>
+        <v>561</v>
       </c>
       <c r="F231" t="s">
         <v>447</v>
@@ -5959,7 +5959,7 @@
         <v>421</v>
       </c>
       <c r="D232">
-        <v>742</v>
+        <v>689</v>
       </c>
       <c r="F232" t="s">
         <v>447</v>
@@ -5979,7 +5979,7 @@
         <v>421</v>
       </c>
       <c r="D233">
-        <v>875</v>
+        <v>561</v>
       </c>
       <c r="F233" t="s">
         <v>447</v>
@@ -5999,7 +5999,7 @@
         <v>421</v>
       </c>
       <c r="D234">
-        <v>675</v>
+        <v>792</v>
       </c>
       <c r="F234" t="s">
         <v>447</v>
@@ -6019,7 +6019,7 @@
         <v>422</v>
       </c>
       <c r="D235">
-        <v>732</v>
+        <v>637</v>
       </c>
       <c r="F235" t="s">
         <v>447</v>
@@ -6039,7 +6039,7 @@
         <v>422</v>
       </c>
       <c r="D236">
-        <v>532</v>
+        <v>576</v>
       </c>
       <c r="F236" t="s">
         <v>447</v>
@@ -6059,7 +6059,7 @@
         <v>422</v>
       </c>
       <c r="D237">
-        <v>889</v>
+        <v>748</v>
       </c>
       <c r="F237" t="s">
         <v>447</v>
@@ -6181,7 +6181,7 @@
         <v>425</v>
       </c>
       <c r="D244">
-        <v>876</v>
+        <v>723</v>
       </c>
       <c r="F244" t="s">
         <v>447</v>
@@ -6201,7 +6201,7 @@
         <v>425</v>
       </c>
       <c r="D245">
-        <v>537</v>
+        <v>766</v>
       </c>
       <c r="F245" t="s">
         <v>447</v>
@@ -6221,7 +6221,7 @@
         <v>425</v>
       </c>
       <c r="D246">
-        <v>867</v>
+        <v>785</v>
       </c>
       <c r="F246" t="s">
         <v>447</v>
@@ -6241,7 +6241,7 @@
         <v>426</v>
       </c>
       <c r="D247">
-        <v>610</v>
+        <v>523</v>
       </c>
       <c r="F247" t="s">
         <v>447</v>
@@ -6261,7 +6261,7 @@
         <v>426</v>
       </c>
       <c r="D248">
-        <v>979</v>
+        <v>847</v>
       </c>
       <c r="F248" t="s">
         <v>447</v>
@@ -6332,7 +6332,7 @@
         <v>428</v>
       </c>
       <c r="D252">
-        <v>715</v>
+        <v>516</v>
       </c>
       <c r="F252" t="s">
         <v>447</v>
@@ -6352,7 +6352,7 @@
         <v>428</v>
       </c>
       <c r="D253">
-        <v>605</v>
+        <v>723</v>
       </c>
       <c r="F253" t="s">
         <v>447</v>
@@ -6389,7 +6389,7 @@
         <v>430</v>
       </c>
       <c r="D255">
-        <v>965</v>
+        <v>662</v>
       </c>
       <c r="F255" t="s">
         <v>447</v>
@@ -6409,7 +6409,7 @@
         <v>430</v>
       </c>
       <c r="D256">
-        <v>928</v>
+        <v>654</v>
       </c>
       <c r="F256" t="s">
         <v>447</v>
@@ -6429,7 +6429,7 @@
         <v>430</v>
       </c>
       <c r="D257">
-        <v>574</v>
+        <v>512</v>
       </c>
       <c r="F257" t="s">
         <v>447</v>
@@ -6449,7 +6449,7 @@
         <v>431</v>
       </c>
       <c r="D258">
-        <v>985</v>
+        <v>730</v>
       </c>
       <c r="F258" t="s">
         <v>447</v>
@@ -6469,7 +6469,7 @@
         <v>431</v>
       </c>
       <c r="D259">
-        <v>664</v>
+        <v>822</v>
       </c>
       <c r="F259" t="s">
         <v>447</v>
@@ -6489,7 +6489,7 @@
         <v>431</v>
       </c>
       <c r="D260">
-        <v>745</v>
+        <v>539</v>
       </c>
       <c r="F260" t="s">
         <v>447</v>
@@ -6594,7 +6594,7 @@
         <v>434</v>
       </c>
       <c r="D266">
-        <v>626</v>
+        <v>715</v>
       </c>
       <c r="F266" t="s">
         <v>447</v>
@@ -6614,7 +6614,7 @@
         <v>435</v>
       </c>
       <c r="D267">
-        <v>998</v>
+        <v>929</v>
       </c>
       <c r="F267" t="s">
         <v>447</v>
@@ -6634,7 +6634,7 @@
         <v>435</v>
       </c>
       <c r="D268">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="F268" t="s">
         <v>447</v>
@@ -6654,7 +6654,7 @@
         <v>435</v>
       </c>
       <c r="D269">
-        <v>552</v>
+        <v>862</v>
       </c>
       <c r="F269" t="s">
         <v>447</v>
@@ -6674,7 +6674,7 @@
         <v>436</v>
       </c>
       <c r="D270">
-        <v>879</v>
+        <v>966</v>
       </c>
       <c r="F270" t="s">
         <v>447</v>
@@ -6694,7 +6694,7 @@
         <v>436</v>
       </c>
       <c r="D271">
-        <v>542</v>
+        <v>966</v>
       </c>
       <c r="F271" t="s">
         <v>447</v>
@@ -6714,7 +6714,7 @@
         <v>437</v>
       </c>
       <c r="D272">
-        <v>860</v>
+        <v>823</v>
       </c>
       <c r="F272" t="s">
         <v>447</v>
@@ -6734,7 +6734,7 @@
         <v>437</v>
       </c>
       <c r="D273">
-        <v>902</v>
+        <v>580</v>
       </c>
       <c r="F273" t="s">
         <v>447</v>
@@ -6754,7 +6754,7 @@
         <v>437</v>
       </c>
       <c r="D274">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="F274" t="s">
         <v>447</v>
@@ -6774,7 +6774,7 @@
         <v>438</v>
       </c>
       <c r="D275">
-        <v>780</v>
+        <v>668</v>
       </c>
       <c r="F275" t="s">
         <v>447</v>
@@ -6794,7 +6794,7 @@
         <v>438</v>
       </c>
       <c r="D276">
-        <v>821</v>
+        <v>596</v>
       </c>
       <c r="F276" t="s">
         <v>447</v>
@@ -6814,7 +6814,7 @@
         <v>439</v>
       </c>
       <c r="D277">
-        <v>791</v>
+        <v>602</v>
       </c>
       <c r="F277" t="s">
         <v>447</v>
@@ -6834,7 +6834,7 @@
         <v>439</v>
       </c>
       <c r="D278">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="F278" t="s">
         <v>447</v>
@@ -6854,7 +6854,7 @@
         <v>439</v>
       </c>
       <c r="D279">
-        <v>710</v>
+        <v>553</v>
       </c>
       <c r="F279" t="s">
         <v>447</v>
@@ -6908,7 +6908,7 @@
         <v>441</v>
       </c>
       <c r="D282">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="F282" t="s">
         <v>447</v>
@@ -6928,7 +6928,7 @@
         <v>441</v>
       </c>
       <c r="D283">
-        <v>854</v>
+        <v>689</v>
       </c>
       <c r="F283" t="s">
         <v>447</v>
@@ -6948,7 +6948,7 @@
         <v>441</v>
       </c>
       <c r="D284">
-        <v>833</v>
+        <v>881</v>
       </c>
       <c r="F284" t="s">
         <v>447</v>
@@ -6968,7 +6968,7 @@
         <v>442</v>
       </c>
       <c r="D285">
-        <v>935</v>
+        <v>752</v>
       </c>
       <c r="F285" t="s">
         <v>447</v>
@@ -6988,7 +6988,7 @@
         <v>442</v>
       </c>
       <c r="D286">
-        <v>716</v>
+        <v>832</v>
       </c>
       <c r="F286" t="s">
         <v>447</v>
@@ -7008,7 +7008,7 @@
         <v>442</v>
       </c>
       <c r="D287">
-        <v>748</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
         <v>447</v>
@@ -7028,7 +7028,7 @@
         <v>443</v>
       </c>
       <c r="D288">
-        <v>538</v>
+        <v>902</v>
       </c>
       <c r="F288" t="s">
         <v>447</v>
@@ -7048,7 +7048,7 @@
         <v>443</v>
       </c>
       <c r="D289">
-        <v>779</v>
+        <v>687</v>
       </c>
       <c r="F289" t="s">
         <v>447</v>
@@ -7068,7 +7068,7 @@
         <v>443</v>
       </c>
       <c r="D290">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F290" t="s">
         <v>447</v>
@@ -7088,7 +7088,7 @@
         <v>444</v>
       </c>
       <c r="D291">
-        <v>605</v>
+        <v>669</v>
       </c>
       <c r="F291" t="s">
         <v>447</v>
@@ -7108,7 +7108,7 @@
         <v>444</v>
       </c>
       <c r="D292">
-        <v>885</v>
+        <v>510</v>
       </c>
       <c r="F292" t="s">
         <v>447</v>
@@ -7128,7 +7128,7 @@
         <v>445</v>
       </c>
       <c r="D293">
-        <v>808</v>
+        <v>955</v>
       </c>
       <c r="F293" t="s">
         <v>447</v>
@@ -7148,7 +7148,7 @@
         <v>445</v>
       </c>
       <c r="D294">
-        <v>930</v>
+        <v>518</v>
       </c>
       <c r="F294" t="s">
         <v>447</v>
@@ -7168,7 +7168,7 @@
         <v>445</v>
       </c>
       <c r="D295">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="F295" t="s">
         <v>447</v>
@@ -7188,7 +7188,7 @@
         <v>446</v>
       </c>
       <c r="D296">
-        <v>679</v>
+        <v>863</v>
       </c>
       <c r="F296" t="s">
         <v>447</v>
@@ -7208,7 +7208,7 @@
         <v>446</v>
       </c>
       <c r="D297">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="F297" t="s">
         <v>447</v>
@@ -7228,7 +7228,7 @@
         <v>446</v>
       </c>
       <c r="D298">
-        <v>670</v>
+        <v>971</v>
       </c>
       <c r="F298" t="s">
         <v>447</v>
